--- a/documents/QAdocumentation1.xlsx
+++ b/documents/QAdocumentation1.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="371" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E57651D-CFAA-415E-B666-62116FE9BAB8}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\source\repos\school-project-assignment-coders\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1945385D-76FF-48E9-9103-32471EF0A2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -250,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +270,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,13 +279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFA9D08E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,94 +448,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -856,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCellId="1" sqref="A4:F4 A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.140625" customWidth="1"/>
@@ -872,120 +885,100 @@
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="13">
         <v>45404</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1000,130 +993,93 @@
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="13">
         <v>45404</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="25"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1138,105 +1094,81 @@
       <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="32" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="26" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="28" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-    </row>
-    <row r="36" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1245,128 +1177,104 @@
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>3</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="5">
         <v>3</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="31" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="32" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="26" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="28" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="50" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1375,128 +1283,104 @@
       <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="10">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>4</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="5">
         <v>4</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="31" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="32" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="26" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="28" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-    </row>
-    <row r="64" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -1505,128 +1389,104 @@
       <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="10">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>5</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="5">
         <v>5</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="31" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="32" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="26" t="s">
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="28" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-    </row>
-    <row r="78" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -1635,128 +1495,104 @@
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="10">
-        <v>6</v>
-      </c>
-      <c r="B79" s="16" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>6</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="16">
-        <v>6</v>
-      </c>
-      <c r="D79" s="16" t="s">
+      <c r="C79" s="5">
+        <v>6</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="31" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="31"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="32" t="s">
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="26" t="s">
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="28" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="29">
+      <c r="D89" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-    </row>
-    <row r="92" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -1765,128 +1601,104 @@
       <c r="D92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="10">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>7</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="5">
         <v>7</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="31" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="32" t="s">
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="26" t="s">
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="9"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="28" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="28"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-    </row>
-    <row r="106" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -1895,128 +1707,104 @@
       <c r="D106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="10">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>8</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="5">
         <v>8</v>
       </c>
-      <c r="D107" s="16" t="s">
+      <c r="D107" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="31" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="32" t="s">
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="26" t="s">
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="9"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="28" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="17"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="29">
+      <c r="D117" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-    </row>
-    <row r="120" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B120" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -2025,128 +1813,104 @@
       <c r="D120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E120" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="10">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>9</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="16">
+      <c r="C121" s="5">
         <v>9</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D121" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="30" t="s">
+      <c r="F121" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="31" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="31"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="32" t="s">
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="26" t="s">
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="9"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="28" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="17"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="29">
+      <c r="D131" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="28"/>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-    </row>
-    <row r="134" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -2155,126 +1919,102 @@
       <c r="D134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="23" t="s">
+      <c r="E134" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="10">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>10</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C135" s="5">
         <v>10</v>
       </c>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16" t="s">
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F135" s="30" t="s">
+      <c r="F135" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="13"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="13"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="31" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="32" t="s">
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="26" t="s">
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="26" t="s">
+      <c r="B143" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="33" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D145" s="29">
+      <c r="D145" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="28"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-    </row>
-    <row r="148" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B148" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -2283,128 +2023,104 @@
       <c r="D148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="10">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
         <v>11</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C149" s="16">
+      <c r="C149" s="5">
         <v>11</v>
       </c>
-      <c r="D149" s="16" t="s">
+      <c r="D149" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F149" s="30" t="s">
+      <c r="F149" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="13"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="13"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="13"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="31" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="31"/>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="32" t="s">
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="22"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="32"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="26" t="s">
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="27"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="27"/>
-      <c r="D158" s="9"/>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="28" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="17"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="C159" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="29">
+      <c r="D159" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
-    </row>
-    <row r="162" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -2413,128 +2129,104 @@
       <c r="D162" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E162" s="23" t="s">
+      <c r="E162" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="10">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
         <v>12</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C163" s="16">
+      <c r="C163" s="5">
         <v>12</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F163" s="30" t="s">
+      <c r="F163" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="13"/>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="13"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="13"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="31" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="31"/>
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="32" t="s">
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
+      <c r="F167" s="22"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
+      <c r="F168" s="22"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="32"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="32"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="26" t="s">
+      <c r="B170" s="23"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="26" t="s">
+      <c r="B171" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C171" s="26" t="s">
+      <c r="C171" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="D171" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="9"/>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" s="28" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="15"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="17"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C173" s="28" t="s">
+      <c r="C173" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D173" s="29">
+      <c r="D173" s="13">
         <v>45404</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="28"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-    </row>
-    <row r="176" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -2543,174 +2235,54 @@
       <c r="D176" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="10">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
         <v>13</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="16">
+      <c r="C177" s="5">
         <v>13</v>
       </c>
-      <c r="D177" s="16" t="s">
+      <c r="D177" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F177" s="30" t="s">
+      <c r="F177" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="13"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="13"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="13"/>
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="13"/>
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="13"/>
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="A167:F168"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A153:F154"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="A139:F140"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="A125:F126"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="A111:F112"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A97:F98"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A83:F84"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A69:F70"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A55:F56"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -2722,25 +2294,105 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A55:F56"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A69:F70"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A83:F84"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A97:F98"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A111:F112"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="A125:F126"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="A139:F140"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A153:F154"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="A167:F168"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
